--- a/[SuppXLS]/Scen_Elec_prof.xlsx
+++ b/[SuppXLS]/Scen_Elec_prof.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2023.12.06 - Very Simple Times Model\[SuppXLS]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Pulpit\Nowy folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479C058-316E-4F83-AB72-8BA9AC30447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56ECDFCB-0EA6-4DD0-96EC-0A24B69CD230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,11 +256,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,21 +579,21 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -605,13 +601,13 @@
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>0.15</v>
       </c>
     </row>
